--- a/biology/Botanique/Forêt_de_Coat-an-Noz/Forêt_de_Coat-an-Noz.xlsx
+++ b/biology/Botanique/Forêt_de_Coat-an-Noz/Forêt_de_Coat-an-Noz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Coat an Noz- Coat an Hay est située dans les Côtes-d'Armor, sur les communes de Belle-Isle-en-Terre et Louargat et en moindre mesure Loc-Envel, Plounévez-Moëdec et Plougonver.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En breton, Coat an noz signifie bois de la nuit. L'origine de Coat an hay est plus obscure : cela pourrait signifier bois du jour en vieux breton, par opposition au bois de la nuit (le soleil couchant) et donc ici, le soleil levant.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-La forêt est en majeure partie située sur la commune de Belle-Isle-en-Terre. Elle est traversée par le Léguer : on distingue le bois de Coat-an-Noz à l'ouest et le bois de Coat-an-Hay à l'est. « Coat-an-Noz, surtout, est admirable de pousse drue, de grandeur, de solennité farouche, acec  tout à coup l'apaisement régulier d'un parc, autour de la maison de la Bosse, en pleine forêt, non loin des Forges » écrit Gustave Geffroy en 1905[1].
-Géologie
-Une zone ferrifère se trouve dans la partie orientale du synclinal des Monts d'Arrée ; le minerai de fer est interstratifié dans des couches dévoniennes. Il a été exploité par le passé, à des dates indéterminées, entre Lohuec et Plougras, dans des lieux-dits comme Pengalet, le Rocher, Landeven, ainsi que dans la forêt de Beffou et à La Chapelle-Neuve. C'est ce minerai qui a alimenté les anciennes forges situées à l'entrée de la forêt de Coat-an-Noz, au sud de Belle-Isle-en-Terre[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est en majeure partie située sur la commune de Belle-Isle-en-Terre. Elle est traversée par le Léguer : on distingue le bois de Coat-an-Noz à l'ouest et le bois de Coat-an-Hay à l'est. « Coat-an-Noz, surtout, est admirable de pousse drue, de grandeur, de solennité farouche, acec  tout à coup l'apaisement régulier d'un parc, autour de la maison de la Bosse, en pleine forêt, non loin des Forges » écrit Gustave Geffroy en 1905.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Des voies romaines ont traversé le secteur, un artisanat de métallurgie semble déjà s'être développé à cette époque.
-Un massif forestier englobait peut-être les forêts de Coat-an-Noz, Beffou, Avaugour, et Lorge avant le XIIe siècle.
-Les forges se sont développées à partir du XVIIIe siècle, grâce à la proximité des rivières. On y extrayait fer, argent et plomb entre autres. Charbonniers et sabotiers étaient nombreux les siècles passés (jusque dans les premières décennies du XXe siècle) en forêt de Coat-an-Noz[3]. 
-Les propriétaires successifs, la maison de Suffren, puis au XIXe, la maison de Faucigny (branche des Faucigny-Lucinge, comtes de Sesmaisons) et enfin Robert Mond sera le dernier propriétaire du domaine[4].
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une zone ferrifère se trouve dans la partie orientale du synclinal des Monts d'Arrée ; le minerai de fer est interstratifié dans des couches dévoniennes. Il a été exploité par le passé, à des dates indéterminées, entre Lohuec et Plougras, dans des lieux-dits comme Pengalet, le Rocher, Landeven, ainsi que dans la forêt de Beffou et à La Chapelle-Neuve. C'est ce minerai qui a alimenté les anciennes forges situées à l'entrée de la forêt de Coat-an-Noz, au sud de Belle-Isle-en-Terre.
 </t>
         </is>
       </c>
@@ -593,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +628,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des voies romaines ont traversé le secteur, un artisanat de métallurgie semble déjà s'être développé à cette époque.
+Un massif forestier englobait peut-être les forêts de Coat-an-Noz, Beffou, Avaugour, et Lorge avant le XIIe siècle.
+Les forges se sont développées à partir du XVIIIe siècle, grâce à la proximité des rivières. On y extrayait fer, argent et plomb entre autres. Charbonniers et sabotiers étaient nombreux les siècles passés (jusque dans les premières décennies du XXe siècle) en forêt de Coat-an-Noz. 
+Les propriétaires successifs, la maison de Suffren, puis au XIXe, la maison de Faucigny (branche des Faucigny-Lucinge, comtes de Sesmaisons) et enfin Robert Mond sera le dernier propriétaire du domaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Coat-an-Noz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Coat-an-Noz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Le château</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Coat-an-Noz a été construit entre 1880 et 1884 par la comtesse de Sesmaisons (1838-1901).
 En 1859, le château devient — par alliance — la propriété des princes de Faucigny-Lucinge. Le prince Bertrand de Faucigny-Lucinge, criblé de dettes, revend le château et le vaste domaine qui l'entoure en 1923.
@@ -620,45 +678,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Coat-an-Noz</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sites naturels</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rivières, le Guic à Coat-an-Noz et le Léguer à Coat-an-Hay.
-Le Cap est un site rocheux remarquable, on y domine le paysage. La flore y est essentiellement composée de buis.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,12 +699,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Faune</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loutres, chauves-souris[5].
+          <t>Sites naturels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rivières, le Guic à Coat-an-Noz et le Léguer à Coat-an-Hay.
+Le Cap est un site rocheux remarquable, on y domine le paysage. La flore y est essentiellement composée de buis.
 </t>
         </is>
       </c>
@@ -689,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,12 +733,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Activités</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Randonnée, pêche[6].
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loutres, chauves-souris.
 </t>
         </is>
       </c>
@@ -720,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Coat-an-Noz</t>
+          <t>Forêt_de_Coat-an-Noz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,12 +766,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Randonnée, pêche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_Coat-an-Noz</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Coat-an-Noz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Légende</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fantôme du chevalier du Cap, sort une fois l'an et tranche le chef du malheureux qui le croise[5],[6],[7].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fantôme du chevalier du Cap, sort une fois l'an et tranche le chef du malheureux qui le croise.
 </t>
         </is>
       </c>
